--- a/medicine/Psychotrope/Château_Lamothe_(Sauternes)/Château_Lamothe_(Sauternes).xlsx
+++ b/medicine/Psychotrope/Château_Lamothe_(Sauternes)/Château_Lamothe_(Sauternes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Château Lamothe, est un domaine viticole de 7,5 ha de vignoble, situé dans la commune de Sauternes dans le département de la Gironde, en France.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Superficie du vignoble et encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 7,5 ha en Grand Cru Classé 1855
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Culture et récolte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amendement organique, désherbage mécanique, effeuillage manuel.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Vinification et élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pressurage pneumatique lent et modéré ( 8hl en 5 heures), sélection des jus, fermentation de 30 à 60 jours, élevage de 28 à 30 mois, en petites cuves et/ou barriques bordelaises de chêne français. Collage et filtration tangentielle avant mise en bouteille.[réf. nécessaire]
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lamothe_(Sauternes)</t>
+          <t>Château_Lamothe_(Sauternes)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
